--- a/叶泠泠/全员等级.xlsx
+++ b/叶泠泠/全员等级.xlsx
@@ -295,7 +295,8 @@
     <t>压制了6级魂力，加上吸收的龙魂，等级达到60级。
 生灵海棠吸收了三十六个魂骨，品质提升到伪超神器，魂环等级提升到百万年，重量达到50吨。
 吸收力量型龙魂，加上战斗和锻炼，力量超过100吨，堪比力量型极限斗罗。
-吸收精神属性龙魂，精神力达到极限斗罗灵域境。</t>
+吸收精神属性龙魂，精神力达到极限斗罗灵域境。
+领悟人器合一。</t>
   </si>
   <si>
     <t>50+5+5+6=66</t>
@@ -1457,10 +1458,10 @@
   <sheetPr/>
   <dimension ref="A1:AV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2535,7 +2536,7 @@
       <c r="AU20" s="21"/>
       <c r="AV20" s="21"/>
     </row>
-    <row r="21" ht="124.2" spans="1:48">
+    <row r="21" ht="138" spans="1:48">
       <c r="A21" s="1">
         <v>270525</v>
       </c>

--- a/叶泠泠/全员等级.xlsx
+++ b/叶泠泠/全员等级.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C146A-07D2-4C7A-AD07-4FEA5CBF5402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>叶泠泠</t>
   </si>
@@ -119,7 +113,8 @@
   </si>
   <si>
     <t>吃冰火双草和绮罗幽香仙品，洗掉毒属性和魂环，获得冰火双属性，武魂进化为冰火蛇龙，等级回到10级，吸收2500年魂环，等级提升5级。
-修炼时有叶泠泠武魂帮助，提升0.5，总共1.3。</t>
+修炼时有叶泠泠武魂帮助，提升0.5，总共1.3。
+叶泠泠指点，重点修炼对魂力的控制力。</t>
   </si>
   <si>
     <t>黑2黑2</t>
@@ -151,6 +146,9 @@
 自创拟生灵之金半成品。</t>
   </si>
   <si>
+    <t>叶泠泠指点，尝试同时释放冰火魂技。</t>
+  </si>
+  <si>
     <t>黄3黄6</t>
   </si>
   <si>
@@ -178,24 +176,32 @@
     <t>红5红5红5</t>
   </si>
   <si>
+    <t>二十吨力量，体质接近极限斗罗，精神力达到封号斗罗境界。
+自创拟生灵之金，领悟生命领域半成品</t>
+  </si>
+  <si>
     <t>紫2紫6紫9紫9</t>
   </si>
   <si>
-    <t>体质接近魂帝但精神力不足，吸收9000年魂环，等级提升2级。</t>
+    <t>能同时释放冰火魂技。
+体质接近魂帝但精神力不足，吸收9000年魂环，等级提升2级。</t>
   </si>
   <si>
     <t>吃鲸胶增加500体质。
-得到叶泠泠武魂辅助，修炼速度增加1.3。</t>
+得到叶泠泠武魂辅助，修炼速度增加1.3。
+开始训练对魂力的掌控。</t>
   </si>
   <si>
     <t>黄3黄6紫1</t>
   </si>
   <si>
     <t>受叶泠泠和独孤雁打击，放下自创魂技。
-得到叶泠泠武魂辅助，修炼速度增加0.5。</t>
-  </si>
-  <si>
-    <t>得到叶泠泠武魂辅助，修炼速度增加0.5。</t>
+得到叶泠泠武魂辅助，修炼速度增加0.5。
+开始训练对魂力的掌控。</t>
+  </si>
+  <si>
+    <t>得到叶泠泠武魂辅助，修炼速度增加0.5。
+开始训练对魂力的掌控。</t>
   </si>
   <si>
     <t>红5红5红5红5</t>
@@ -205,185 +211,95 @@
   </si>
   <si>
     <t>叶泠泠提前探索龙谷入口，吃仙草，猎魂环，对战暗魔邪神虎，全大陆魂师大赛</t>
-  </si>
-  <si>
-    <t>体质接近魂圣，暂缓获取魂环。</t>
-  </si>
-  <si>
-    <t>37+3=40</t>
-  </si>
-  <si>
-    <t>黄3黄6紫2紫8</t>
-  </si>
-  <si>
-    <t>吃绮罗郁金香，提升5级，不获取魂环，压制2级。</t>
-  </si>
-  <si>
-    <t>42+6+2=50</t>
-  </si>
-  <si>
-    <t>黄3黄6紫1紫8</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环。
-服用飘渺风铃草提升5级，服用暗魔邪神虎风珠，提升2级，进化极致之风，修炼速度不受极致属性影响。</t>
-  </si>
-  <si>
-    <t>34+6=40</t>
-  </si>
-  <si>
-    <t>黄3黄6紫2</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环。
-服用鸡冠凤凰葵提升6级。</t>
-  </si>
-  <si>
-    <t>30+3+5=38</t>
-  </si>
-  <si>
-    <t>黄3黄6紫8</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环，等级增加3级。
-服用八瓣仙兰，提升5级，增加修炼速度0.4。</t>
-  </si>
-  <si>
-    <t>27+3=30</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，叶泠泠辅助修炼。
-服用水仙玉肌骨，提升5级，修复天赋缺陷。
-压制2级。</t>
-  </si>
-  <si>
-    <t>黄3黄6紫1紫4黑1</t>
-  </si>
-  <si>
-    <t>半年后开启龙谷探险，探险半年，出来后叶泠泠为大家制作魂环。</t>
-  </si>
-  <si>
-    <t>压制了2级魂力</t>
-  </si>
-  <si>
-    <t>压制4级。</t>
-  </si>
-  <si>
-    <t>压制了3级魂力。</t>
-  </si>
-  <si>
-    <t>压制2级。</t>
-  </si>
-  <si>
-    <t>1月时达到40级，压制2级。</t>
-  </si>
-  <si>
-    <t>50+6+4=60</t>
-  </si>
-  <si>
-    <t>金金金金金金</t>
-  </si>
-  <si>
-    <t>50+5+5+6=66</t>
-  </si>
-  <si>
-    <t>紫2紫6紫9紫9红1红1</t>
-  </si>
-  <si>
-    <t>压制了5级魂力，加上吸收的龙魂，等级达到60级。
-吸收龙魂，武魂进化为冰火真龙。
-龙族血脉加上自身修炼，以及吸收龙魂，体质达到封号斗罗，可吸收十万年魂环，连续两个十万年魂环，等级增加6级。</t>
-  </si>
-  <si>
-    <t>40+7+5+4=56</t>
-  </si>
-  <si>
-    <t>黄3黄6紫2黑6黑6</t>
-  </si>
-  <si>
-    <t>压制7级。
-吸收龙魂增加5级，体质超过魂圣，天鹅血脉体质稍弱，可吸收两个6万年魂环，等级增加4级。</t>
-  </si>
-  <si>
-    <t>56+4+4=64</t>
-  </si>
-  <si>
-    <t>黄3黄6紫1紫8黑7黑7</t>
-  </si>
-  <si>
-    <t>压制了6级魂力，加上吸收龙魂增加4级，等级达到60级。
-体质超过魂圣，可吸收7万年魂环，连续吸收两个7万年魂环，等级增加4级。</t>
-  </si>
-  <si>
-    <t>40+4+5+4=53</t>
-  </si>
-  <si>
-    <t>压制4级。
-吸收龙魂增加5级，进化极致之火，修炼速度不受影响。
-等级达到50级，武魂限制体质稍弱，可吸收两个6万年魂环，等级增加4级。</t>
-  </si>
-  <si>
-    <t>40+5+5+4=54</t>
-  </si>
-  <si>
-    <t>黄3黄6紫8黑8黑8</t>
-  </si>
-  <si>
-    <t>压制5级。
-吸收龙魂增加5级，等级达到50级，冰凤凰体质较强，可吸收8万年魂环，吸收两个等级增加4级。</t>
-  </si>
-  <si>
-    <t>30+6+5+5=46</t>
-  </si>
-  <si>
-    <t>黄3黄6黑6黑6</t>
-  </si>
-  <si>
-    <t>压制6级。
-吸收龙魂增加5级，豚武魂体质稍弱，可吸收两个6万年魂环，分别增加3级和2级。</t>
-  </si>
-  <si>
-    <t>黄3黄6紫1紫4黑1黑2</t>
-  </si>
-  <si>
-    <t>来到飓风峡谷，遇到千仞雪，风笑天开启风神神考，千仞雪回武魂殿开始天使神考。</t>
-  </si>
-  <si>
-    <t>瀚海乾坤罩认主水冰儿，前往海神岛，叶泠泠独自深入海底寻找吸收稀有材料，前往日月大陆对战邪帝，获得邪眼外附魂骨，找到万载玄冰窟吸收冰极神晶，潜入冰火两仪眼吸收冰极神晶和火极神晶。</t>
-  </si>
-  <si>
-    <t>史莱克猎魂环不敢惹事是庸才，全大陆魂师大赛，小舞暴露。</t>
-  </si>
-  <si>
-    <t>返回海神岛，水冰儿成为海神，水月儿获得水神传承，雪麟获得光明神传承，因为水神是火神的妻子，火舞获得火神传承，水神火神认识情绪之神，独孤雁获得情绪之神传承，叶泠泠吸收七根深海沉银柱子，千仞雪成为天使神。</t>
-  </si>
-  <si>
-    <t>叶泠泠获得生命女神和毁灭之神的馈赠，生灵海棠成为超神器，比比东成为罗刹神，武魂殿入侵天斗，叶泠泠对战比比东，水冰儿对战千仞雪。</t>
-  </si>
-  <si>
-    <t>武魂殿解散重组为天斗帝国下属魂师管理部。</t>
-  </si>
-  <si>
-    <t>史莱克前往海神岛被赶走。</t>
-  </si>
-  <si>
-    <t>叶泠泠与自身武魂融合，成为神王，自创神位生灭之神（无常之神）。</t>
   </si>
   <si>
     <t>暂缓凝聚魂环，三十三吨力量，力量堪比纯力量封号斗罗，体质堪比一般极限斗罗。
 吸收暗魔邪神虎核心，获得时空属性，力量增加7吨，达到40吨。
 精神力达到超级斗罗境界。
 比赛中领悟生命领域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半自创魂技，融合冰火魂技，冰火两重天。
+体质接近魂圣，暂缓获取魂环。</t>
+  </si>
+  <si>
+    <t>37+3=40</t>
+  </si>
+  <si>
+    <t>黄3黄6紫2紫8</t>
+  </si>
+  <si>
+    <t>吃绮罗郁金香，提升5级，不获取魂环，压制2级。
+领悟超频增幅魂技，提升增幅魂技效果上限。</t>
+  </si>
+  <si>
+    <t>42+6+2=50</t>
+  </si>
+  <si>
+    <t>黄3黄6紫1紫8</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环。
+服用飘渺风铃草提升5级，服用暗魔邪神虎风珠，提升2级，武魂进化疾风三头狼，进化极致之风，修炼速度不受极致属性影响。
+强化了自身风刃的速度。</t>
+  </si>
+  <si>
+    <t>34+6=40</t>
+  </si>
+  <si>
+    <t>黄3黄6紫2</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环。
+服用鸡冠凤凰葵提升6级。
+增幅了技能威力。</t>
+  </si>
+  <si>
+    <t>30+3+5=38</t>
+  </si>
+  <si>
+    <t>黄3黄6紫8</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环，等级增加3级。
+服用八瓣仙兰，提升5级，增加修炼速度0.4。
+增加了控技能控制时间，和降低了温度。</t>
+  </si>
+  <si>
+    <t>27+3=30</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼。
+服用水仙玉肌骨，提升5级，修复天赋缺陷。
+压制2级。
+降低了温度。</t>
+  </si>
+  <si>
+    <t>黄3黄6紫1紫4黑1</t>
+  </si>
+  <si>
+    <t>半年后开启龙谷探险，探险半年，出来后叶泠泠为大家制作魂环。</t>
   </si>
   <si>
     <t>压制了3级魂力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二十吨力量，体质接近极限斗罗，精神力达到封号斗罗境界。
-自创拟生灵之金，领悟生命领域半成品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制了2级魂力</t>
+  </si>
+  <si>
+    <t>压制4级。</t>
+  </si>
+  <si>
+    <t>压制2级。</t>
+  </si>
+  <si>
+    <t>1月时达到40级，压制2级。</t>
+  </si>
+  <si>
+    <t>50+6+4=60</t>
+  </si>
+  <si>
+    <t>金金金金金金</t>
   </si>
   <si>
     <t>压制了6级魂力，加上吸收的龙魂，等级达到60级。
@@ -391,22 +307,117 @@
 吸收力量型龙魂，加上战斗和锻炼，力量超过100吨，堪比力量型极限斗罗。
 吸收精神属性龙魂，精神力达到极限斗罗灵域境。
 领悟人器合一，领悟生死领域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50+5+5+6=66</t>
+  </si>
+  <si>
+    <t>紫2紫6紫9紫9红1红1</t>
+  </si>
+  <si>
+    <t>压制了5级魂力，加上吸收的龙魂，等级达到60级。
+吸收龙魂，武魂进化为冰火真龙。
+龙族血脉加上自身修炼，以及吸收龙魂，体质达到封号斗罗，可吸收十万年魂环，连续两个十万年魂环，等级增加6级。
+对融合冰火属性越加深入。</t>
+  </si>
+  <si>
+    <t>40+7+5+4=56</t>
+  </si>
+  <si>
+    <t>黄3黄6紫2黑6黑6</t>
+  </si>
+  <si>
+    <t>压制7级。
+吸收龙魂增加5级，体质超过魂圣，天鹅血脉体质稍弱，可吸收两个6万年魂环，等级增加4级。
+自创魂技光明之怒，有不错的攻击力，增加了自身攻击手段。</t>
+  </si>
+  <si>
+    <t>56+4+4=64</t>
+  </si>
+  <si>
+    <t>黄3黄6紫1紫8黑7黑7</t>
+  </si>
+  <si>
+    <t>压制了6级魂力，加上吸收龙魂增加4级，等级达到60级。
+体质超过魂圣，可吸收7万年魂环，连续吸收两个7万年魂环，等级增加4级。
+自创魂技三重施法，强化三倍技能威力。</t>
+  </si>
+  <si>
+    <t>40+4+5+4=53</t>
+  </si>
+  <si>
+    <t>压制4级。
+吸收龙魂增加5级，进化极致之火，修炼速度不受影响。
+等级达到50级，武魂限制体质稍弱，可吸收两个6万年魂环，等级增加4级。
+自创魂技红莲，爆炸，有伤及自身的风险。</t>
+  </si>
+  <si>
+    <t>40+5+5+4=54</t>
+  </si>
+  <si>
+    <t>黄3黄6紫8黑8黑8</t>
+  </si>
+  <si>
+    <t>压制5级。
+吸收龙魂增加5级，等级达到50级，冰凤凰体质较强，可吸收8万年魂环，吸收两个等级增加4级。
+领悟极寒领域雏形。</t>
+  </si>
+  <si>
+    <t>30+6+5+5=46</t>
+  </si>
+  <si>
+    <t>黄3黄6黑6黑6</t>
+  </si>
+  <si>
+    <t>压制6级。
+吸收龙魂增加5级，豚武魂体质稍弱，可吸收两个6万年魂环，分别增加3级和2级。
+进一步降低了温度，夯实基础。</t>
+  </si>
+  <si>
+    <t>黄3黄6紫1紫4黑1黑2</t>
+  </si>
+  <si>
+    <t>来到飓风峡谷，遇到千仞雪，风笑天开启风神神考，千仞雪回武魂殿开始天使神考。</t>
+  </si>
+  <si>
+    <t>瀚海乾坤罩认主水冰儿，前往海神岛，叶泠泠独自深入海底寻找吸收稀有材料，前往日月大陆对战邪帝，获得邪眼外附魂骨，找到万载玄冰窟吸收冰极神晶，潜入冰火两仪眼吸收冰极神晶和火极神晶。</t>
+  </si>
+  <si>
+    <t>史莱克猎魂环不敢惹事是庸才，全大陆魂师大赛，小舞暴露。</t>
+  </si>
+  <si>
+    <t>返回海神岛，水冰儿成为海神，水月儿获得水神传承，雪麟获得光明神传承，因为水神是火神的妻子，火舞获得火神传承，水神火神认识情绪之神，独孤雁获得情绪之神传承，叶泠泠吸收七根深海沉银柱子，千仞雪成为天使神。</t>
+  </si>
+  <si>
+    <t>叶泠泠获得生命女神和毁灭之神的馈赠，生灵海棠成为超神器，比比东成为罗刹神，武魂殿入侵天斗，叶泠泠对战比比东，水冰儿对战千仞雪。</t>
+  </si>
+  <si>
+    <t>武魂殿解散重组为天斗帝国下属魂师管理部。</t>
+  </si>
+  <si>
+    <t>史莱克前往海神岛被赶走。</t>
   </si>
   <si>
     <t>天斗帝国发展魂导器科技，唐门开始衰落。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠与自身武魂融合，成为神王，自创神位生灭之神（无常之神）。</t>
   </si>
   <si>
     <t>唐三继承修罗神，来到天斗议会要求给唐门让路，并让众人加入其麾下，与众人战斗，最后被叶泠泠打败。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,22 +426,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,13 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
+        <fgColor theme="3" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,13 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,8 +656,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -518,28 +851,292 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -553,12 +1150,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -567,59 +1173,81 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFA9D08E"/>
-      <color rgb="FF8EA9DB"/>
-      <color rgb="FF8497B0"/>
-      <color rgb="FFF4B084"/>
-      <color rgb="FF9BC2E6"/>
-      <color rgb="FFFFD966"/>
+      <color rgb="00A9D08E"/>
+      <color rgb="008EA9DB"/>
+      <color rgb="008497B0"/>
+      <color rgb="00F4B084"/>
+      <color rgb="009BC2E6"/>
+      <color rgb="00FFD966"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -877,1276 +1505,1279 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B42" sqref="B42"/>
+      <selection/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.92578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.2109375" customWidth="1"/>
-    <col min="7" max="7" width="2.35546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" customWidth="1"/>
-    <col min="13" max="13" width="2.35546875" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="31.5703125" customWidth="1"/>
-    <col min="19" max="19" width="2.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" customWidth="1"/>
-    <col min="24" max="24" width="35.92578125" customWidth="1"/>
-    <col min="25" max="25" width="2.35546875" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" customWidth="1"/>
-    <col min="30" max="30" width="35.78515625" customWidth="1"/>
-    <col min="31" max="31" width="2.35546875" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.9259259259259" customWidth="1"/>
+    <col min="3" max="3" width="11.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="20.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="36.212962962963" customWidth="1"/>
+    <col min="7" max="7" width="2.35185185185185" customWidth="1"/>
+    <col min="9" max="9" width="14.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="20.8518518518519" customWidth="1"/>
+    <col min="12" max="12" width="37.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="2.35185185185185" customWidth="1"/>
+    <col min="15" max="15" width="14.5740740740741" customWidth="1"/>
+    <col min="17" max="17" width="17.5740740740741" customWidth="1"/>
+    <col min="18" max="18" width="31.5740740740741" customWidth="1"/>
+    <col min="19" max="19" width="2.28703703703704" customWidth="1"/>
+    <col min="21" max="21" width="11.8518518518519" customWidth="1"/>
+    <col min="23" max="23" width="20.8518518518519" customWidth="1"/>
+    <col min="24" max="24" width="37.8888888888889" customWidth="1"/>
+    <col min="25" max="25" width="2.35185185185185" customWidth="1"/>
+    <col min="27" max="27" width="14.5740740740741" customWidth="1"/>
+    <col min="29" max="29" width="17.5740740740741" customWidth="1"/>
+    <col min="30" max="30" width="35.787037037037" customWidth="1"/>
+    <col min="31" max="31" width="2.35185185185185" customWidth="1"/>
+    <col min="33" max="33" width="14.5740740740741" customWidth="1"/>
+    <col min="35" max="35" width="17.5740740740741" customWidth="1"/>
     <col min="36" max="36" width="36" customWidth="1"/>
-    <col min="37" max="37" width="2.28515625" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" customWidth="1"/>
-    <col min="41" max="41" width="14.140625" customWidth="1"/>
-    <col min="42" max="42" width="35.7109375" customWidth="1"/>
-    <col min="43" max="43" width="2.35546875" customWidth="1"/>
-    <col min="47" max="47" width="20.85546875" customWidth="1"/>
-    <col min="48" max="48" width="37.78515625" customWidth="1"/>
+    <col min="37" max="37" width="2.28703703703704" customWidth="1"/>
+    <col min="39" max="39" width="14.5740740740741" customWidth="1"/>
+    <col min="41" max="41" width="14.1388888888889" customWidth="1"/>
+    <col min="42" max="42" width="35.712962962963" customWidth="1"/>
+    <col min="43" max="43" width="2.35185185185185" customWidth="1"/>
+    <col min="47" max="47" width="20.8518518518519" customWidth="1"/>
+    <col min="48" max="48" width="37.787037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48">
       <c r="A1" s="1">
         <v>268241</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="T1" s="33" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="T1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Z1" s="34" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Z1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AF1" s="28" t="s">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AF1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AR1" s="29" t="s">
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AR1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:48">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AM2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="18" t="s">
+      <c r="AN2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AO2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AV2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+    <row r="3" ht="124.2" spans="2:48">
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1.7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>18</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>0.8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="12" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19">
         <v>0.4</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="13" t="s">
+      <c r="W3" s="19"/>
+      <c r="X3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27">
         <v>0.8</v>
       </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="19" t="s">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18">
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28">
         <v>0.6</v>
       </c>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="23" t="s">
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18">
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28">
         <v>0.8</v>
       </c>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18" t="s">
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7">
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13">
         <v>0.8</v>
       </c>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="12" t="s">
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
+    <row r="4" ht="96.6" spans="2:12">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1.7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>9</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>15</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>1.3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>268455</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1.7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>19</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>1.3</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:48" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="6" ht="27.6" spans="1:12">
       <c r="A6" s="1">
         <v>268545</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>21</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>1.7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>23</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>1.3</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="9" ht="41.4" spans="1:48">
       <c r="A9" s="1">
         <v>268941</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>1.7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>11</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>29</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>1.3</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="7">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="13">
         <v>10</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="13">
         <v>23</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="13">
         <v>0.8</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="T9" s="11">
+      <c r="Q9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="T9" s="19">
         <v>15</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="19">
         <v>28</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="19">
         <v>0.4</v>
       </c>
-      <c r="W9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="11"/>
-      <c r="Z9" s="17">
+      <c r="W9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="19"/>
+      <c r="Z9" s="27">
         <v>10</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="27">
         <v>21</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="27">
         <v>0.8</v>
       </c>
-      <c r="AC9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9" s="17"/>
-      <c r="AF9" s="18">
+      <c r="AC9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="27"/>
+      <c r="AF9" s="28">
         <v>8</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AG9" s="28">
         <v>16</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH9" s="28">
         <v>0.6</v>
       </c>
-      <c r="AI9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ9" s="18"/>
-      <c r="AL9" s="18">
+      <c r="AI9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" s="28"/>
+      <c r="AL9" s="28">
         <v>9</v>
       </c>
-      <c r="AM9" s="18">
+      <c r="AM9" s="28">
         <v>15</v>
       </c>
-      <c r="AN9" s="18">
+      <c r="AN9" s="28">
         <v>0.8</v>
       </c>
-      <c r="AO9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP9" s="18"/>
-      <c r="AR9" s="7">
+      <c r="AO9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP9" s="28"/>
+      <c r="AR9" s="13">
         <v>14</v>
       </c>
-      <c r="AS9" s="7">
+      <c r="AS9" s="13">
         <v>43</v>
       </c>
-      <c r="AT9" s="7">
+      <c r="AT9" s="13">
         <v>0.5</v>
       </c>
-      <c r="AU9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV9" s="7"/>
+      <c r="AU9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV9" s="13"/>
     </row>
-    <row r="10" spans="1:48" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="10" ht="27.6" spans="1:48">
       <c r="A10" s="1">
         <v>268972</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>1.7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5">
         <v>11</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>33</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>1.3</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="7">
+      <c r="L10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="13">
         <v>10</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="13">
         <v>24</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="13">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="11">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="T10" s="19">
         <v>15</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="19">
         <v>28</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="19">
         <v>0.4</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Z10" s="17">
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Z10" s="27">
         <v>10</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="27">
         <v>21</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="27">
         <v>0.8</v>
       </c>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AF10" s="18">
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AF10" s="28">
         <v>8</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="28">
         <v>16</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH10" s="28">
         <v>0.6</v>
       </c>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AL10" s="18">
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AL10" s="28">
         <v>9</v>
       </c>
-      <c r="AM10" s="18">
+      <c r="AM10" s="28">
         <v>15</v>
       </c>
-      <c r="AN10" s="18">
+      <c r="AN10" s="28">
         <v>0.8</v>
       </c>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AR10" s="7">
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AR10" s="13">
         <v>14</v>
       </c>
-      <c r="AS10" s="7">
+      <c r="AS10" s="13">
         <v>43</v>
       </c>
-      <c r="AT10" s="7">
+      <c r="AT10" s="13">
         <v>1</v>
       </c>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7" t="s">
-        <v>41</v>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="13" ht="55.2" spans="1:48">
       <c r="A13" s="1">
         <v>269520</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>39</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>1.7</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="5">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>42</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>1.3</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="K13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="13">
         <v>11</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="13">
         <v>28</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="13">
         <v>1.3</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="11">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="19">
         <v>16</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="19">
         <v>32</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="19">
         <v>1.5</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z13" s="17">
+      <c r="W13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="27">
         <v>11</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="27">
         <v>25</v>
       </c>
-      <c r="AB13" s="17">
+      <c r="AB13" s="27">
         <v>1.3</v>
       </c>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17" t="s">
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="28">
+        <v>9</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>1.1</v>
+      </c>
+      <c r="AI13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL13" s="28">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="28">
+        <v>19</v>
+      </c>
+      <c r="AN13" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>15</v>
+      </c>
+      <c r="AS13" s="13">
         <v>49</v>
       </c>
-      <c r="AF13" s="18">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="18">
-        <v>21</v>
-      </c>
-      <c r="AH13" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL13" s="18">
-        <v>10</v>
-      </c>
-      <c r="AM13" s="18">
-        <v>19</v>
-      </c>
-      <c r="AN13" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>15</v>
-      </c>
-      <c r="AS13" s="7">
-        <v>49</v>
-      </c>
-      <c r="AT13" s="7">
+      <c r="AT13" s="13">
         <v>1</v>
       </c>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
         <v>269551</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>40</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>1.7</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>42</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <v>1.3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="7">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="N14" s="13">
         <v>12</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="13">
         <v>29</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="13">
         <v>1.3</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="11">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="T14" s="19">
         <v>17</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="19">
         <v>32</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="19">
         <v>1.5</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Z14" s="17">
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Z14" s="27">
         <v>11</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="27">
         <v>26</v>
       </c>
-      <c r="AB14" s="17">
+      <c r="AB14" s="27">
         <v>1.3</v>
       </c>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AF14" s="18">
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AF14" s="28">
         <v>10</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AG14" s="28">
         <v>22</v>
       </c>
-      <c r="AH14" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AL14" s="18">
+      <c r="AH14" s="28">
+        <v>1.1</v>
+      </c>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AL14" s="28">
         <v>11</v>
       </c>
-      <c r="AM14" s="18">
+      <c r="AM14" s="28">
         <v>19</v>
       </c>
-      <c r="AN14" s="18">
+      <c r="AN14" s="28">
         <v>1.3</v>
       </c>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AR14" s="7">
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AR14" s="13">
         <v>16</v>
       </c>
-      <c r="AS14" s="7">
+      <c r="AS14" s="13">
         <v>49</v>
       </c>
-      <c r="AT14" s="7">
+      <c r="AT14" s="13">
         <v>1</v>
       </c>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="17" ht="96.6" spans="1:48">
       <c r="A17" s="1">
         <v>270159</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>50</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>1.7</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <v>50</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="5">
         <v>1.3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="K17" s="5"/>
+      <c r="L17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="13">
         <v>13</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="O17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="13">
         <v>1.3</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" s="11">
+      <c r="Q17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" s="19">
         <v>18</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="AC17" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF17" s="28">
+        <v>11</v>
+      </c>
+      <c r="AG17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH17" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AI17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL17" s="28">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN17" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="AO17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>17</v>
+      </c>
+      <c r="AS17" s="13">
         <v>57</v>
       </c>
-      <c r="V17" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF17" s="18">
-        <v>11</v>
-      </c>
-      <c r="AG17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH17" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="AI17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL17" s="18">
-        <v>12</v>
-      </c>
-      <c r="AM17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN17" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="AO17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>17</v>
-      </c>
-      <c r="AS17" s="7">
-        <v>57</v>
-      </c>
-      <c r="AT17" s="7">
+      <c r="AT17" s="13">
         <v>1</v>
       </c>
-      <c r="AU17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV17" s="7"/>
+      <c r="AU17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV17" s="13"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48">
       <c r="A20" s="1">
         <v>270341</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>50</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>1.7</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10">
         <v>15</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10">
         <v>50</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="10">
         <v>1.3</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="9">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="16">
         <v>14</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="16">
         <v>40</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="16">
         <v>1.3</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T20" s="14">
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" s="22">
         <v>19</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="22">
         <v>50</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="22">
         <v>1.5</v>
       </c>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z20" s="20">
+      <c r="W20" s="22"/>
+      <c r="X20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="31">
         <v>14</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="31">
         <v>40</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="31">
         <v>1.3</v>
       </c>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF20" s="21">
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF20" s="32">
         <v>12</v>
       </c>
-      <c r="AG20" s="21">
+      <c r="AG20" s="32">
         <v>40</v>
       </c>
-      <c r="AH20" s="21">
+      <c r="AH20" s="32">
         <v>1.5</v>
       </c>
-      <c r="AI20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL20" s="21">
+      <c r="AI20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ20" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL20" s="32">
         <v>13</v>
       </c>
-      <c r="AM20" s="21">
+      <c r="AM20" s="32">
         <v>30</v>
       </c>
-      <c r="AN20" s="21">
+      <c r="AN20" s="32">
         <v>1.3</v>
       </c>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR20" s="9">
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" s="16">
         <v>18</v>
       </c>
-      <c r="AS20" s="9">
+      <c r="AS20" s="16">
         <v>59</v>
       </c>
-      <c r="AT20" s="9">
+      <c r="AT20" s="16">
         <v>1</v>
       </c>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
     </row>
-    <row r="21" spans="1:48" ht="141.44999999999999" x14ac:dyDescent="0.35">
+    <row r="21" ht="138" spans="1:48">
       <c r="A21" s="1">
         <v>270525</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>12</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="8">
         <v>1.7</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="10">
+        <v>15</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="16">
+        <v>14</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" s="22">
+        <v>19</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X21" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z21" s="31">
+        <v>14</v>
+      </c>
+      <c r="AA21" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB21" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="AC21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD21" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF21" s="32">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH21" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="AI21" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL21" s="32">
+        <v>13</v>
+      </c>
+      <c r="AM21" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN21" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="AO21" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP21" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR21" s="16">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="16">
+        <v>61</v>
+      </c>
+      <c r="AT21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV21" s="16"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="6">
-        <v>15</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" s="9">
-        <v>14</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="T21" s="14">
-        <v>19</v>
-      </c>
-      <c r="U21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="V21" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z21" s="20">
-        <v>14</v>
-      </c>
-      <c r="AA21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB21" s="20">
-        <v>1.3</v>
-      </c>
-      <c r="AC21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD21" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF21" s="21">
-        <v>12</v>
-      </c>
-      <c r="AG21" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH21" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="AI21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ21" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="21">
-        <v>13</v>
-      </c>
-      <c r="AM21" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN21" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="AO21" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP21" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR21" s="9">
-        <v>18</v>
-      </c>
-      <c r="AS21" s="9">
-        <v>61</v>
-      </c>
-      <c r="AT21" s="9">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV21" s="9"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>95</v>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="27" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="11" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AR1:AV1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>